--- a/Brain/Snowflake/Certifications/DAA-C01/Udemy/ngoctt.xlsx
+++ b/Brain/Snowflake/Certifications/DAA-C01/Udemy/ngoctt.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duong\OneDrive\Máy tính\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Brain\Snowflake\Certifications\DAA-C01\Udemy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81A04F33-3EBF-4FB8-8D3C-5F381EBC6CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2705EF58-0EE9-4BE0-8D07-4496FEDD653F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="14">
   <si>
     <t>a</t>
     <phoneticPr fontId="1"/>
@@ -83,14 +82,22 @@
   </si>
   <si>
     <t>c,d,f</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>b,c</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a,b,f</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,13 +113,26 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -124,17 +144,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -466,11 +493,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0393EDFB-A498-465E-84F5-0F5FC0FCB5FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -888,17 +915,20 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B27" t="s">
+    <row r="27" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C27" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D27" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="C27" s="1" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
@@ -949,20 +979,20 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D31" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+    <row r="31" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="1" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
@@ -1094,6 +1124,9 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>13</v>
+      </c>
       <c r="B40" t="s">
         <v>8</v>
       </c>
@@ -1113,5 +1146,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>